--- a/Erhebung_Philipp.xlsx
+++ b/Erhebung_Philipp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTBfa\Documents\Studium\Erhebungstechniken2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisah\Documents\GitHub\Erhebungstechniken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD2D4B3B-D982-48EF-9644-6FA811B8968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3142FBC4-4FAB-4239-B01B-B8BFF23C2047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FF64E74-21F3-484F-ACF9-339A8D7336F0}"/>
+    <workbookView xWindow="3150" yWindow="1245" windowWidth="22215" windowHeight="12075" xr2:uid="{8FF64E74-21F3-484F-ACF9-339A8D7336F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -474,22 +474,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -527,7 +515,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -633,7 +621,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -775,7 +763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -785,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50AEDED-DCA6-4F35-B306-81F8782401A9}">
   <dimension ref="A1:AY10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP23" sqref="AP23"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,28 +1464,28 @@
         <v>7</v>
       </c>
       <c r="P7">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="T7">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="W7">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="X7">
         <v>0</v>

--- a/Erhebung_Philipp.xlsx
+++ b/Erhebung_Philipp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisah\Documents\GitHub\Erhebungstechniken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3142FBC4-4FAB-4239-B01B-B8BFF23C2047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA87DFB1-FACE-433E-858A-4A719D29FDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="1245" windowWidth="22215" windowHeight="12075" xr2:uid="{8FF64E74-21F3-484F-ACF9-339A8D7336F0}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="22215" windowHeight="12075" xr2:uid="{8FF64E74-21F3-484F-ACF9-339A8D7336F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="118">
   <si>
     <t>Abschnitt 1</t>
   </si>
@@ -337,9 +337,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>nie</t>
   </si>
   <si>
     <t>w</t>
@@ -773,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50AEDED-DCA6-4F35-B306-81F8782401A9}">
   <dimension ref="A1:AY10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1235,7 @@
         <v>43</v>
       </c>
       <c r="AL5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM5" t="s">
         <v>91</v>
@@ -1268,13 +1265,13 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="AW5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AY5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
@@ -1305,8 +1302,8 @@
       <c r="I6">
         <v>-19</v>
       </c>
-      <c r="J6" t="s">
-        <v>104</v>
+      <c r="J6">
+        <v>-1</v>
       </c>
       <c r="K6">
         <v>-19</v>
@@ -1320,8 +1317,8 @@
       <c r="N6">
         <v>-19</v>
       </c>
-      <c r="O6" t="s">
-        <v>104</v>
+      <c r="O6">
+        <v>-1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1384,7 +1381,7 @@
         <v>45.5</v>
       </c>
       <c r="AL6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AM6" t="s">
         <v>91</v>
@@ -1408,13 +1405,13 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="AW6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AY6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
@@ -1554,13 +1551,13 @@
         <v>0.75</v>
       </c>
       <c r="AW7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX7" t="s">
         <v>114</v>
       </c>
-      <c r="AX7" t="s">
-        <v>115</v>
-      </c>
       <c r="AY7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -1591,8 +1588,8 @@
       <c r="I8">
         <v>-19</v>
       </c>
-      <c r="J8" t="s">
-        <v>104</v>
+      <c r="J8">
+        <v>-1</v>
       </c>
       <c r="K8">
         <v>-19</v>
@@ -1664,7 +1661,7 @@
         <v>20</v>
       </c>
       <c r="AH8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ8">
         <v>158</v>
@@ -1673,7 +1670,7 @@
         <v>38</v>
       </c>
       <c r="AL8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AM8" t="s">
         <v>91</v>
@@ -1691,7 +1688,7 @@
         <v>19</v>
       </c>
       <c r="AS8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU8" s="1">
         <v>45986</v>
@@ -1700,13 +1697,13 @@
         <v>0.75</v>
       </c>
       <c r="AW8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX8" t="s">
         <v>114</v>
       </c>
-      <c r="AX8" t="s">
-        <v>115</v>
-      </c>
       <c r="AY8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -1737,8 +1734,8 @@
       <c r="I9">
         <v>17</v>
       </c>
-      <c r="J9" t="s">
-        <v>104</v>
+      <c r="J9">
+        <v>-1</v>
       </c>
       <c r="K9">
         <v>-19</v>
@@ -1816,25 +1813,25 @@
         <v>46</v>
       </c>
       <c r="AL9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM9" t="s">
         <v>108</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="s">
         <v>109</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>110</v>
       </c>
       <c r="AU9" s="1">
         <v>46716</v>
@@ -1843,13 +1840,13 @@
         <v>0.75</v>
       </c>
       <c r="AW9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX9" t="s">
         <v>114</v>
       </c>
-      <c r="AX9" t="s">
-        <v>115</v>
-      </c>
       <c r="AY9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
@@ -1959,16 +1956,16 @@
         <v>47</v>
       </c>
       <c r="AN10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="s">
         <v>111</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>112</v>
       </c>
       <c r="AU10" s="1">
         <v>47082</v>
@@ -1977,13 +1974,13 @@
         <v>0.75</v>
       </c>
       <c r="AW10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX10" t="s">
         <v>114</v>
       </c>
-      <c r="AX10" t="s">
-        <v>115</v>
-      </c>
       <c r="AY10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
